--- a/tecun-security/queries/SQL Sentences in Oracle.xlsx
+++ b/tecun-security/queries/SQL Sentences in Oracle.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santosj.MIXCO\repository\SSO_security\spring-social\queries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santosj.MIXCO\repository\SSO_security\tecun-security\queries\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="75">
   <si>
     <t>rol_id</t>
   </si>
@@ -154,9 +154,6 @@
     <t>/barril</t>
   </si>
   <si>
-    <t>delete_outline</t>
-  </si>
-  <si>
     <t>Tarimas</t>
   </si>
   <si>
@@ -245,6 +242,15 @@
   </si>
   <si>
     <t>/method</t>
+  </si>
+  <si>
+    <t>call_to_action</t>
+  </si>
+  <si>
+    <t>call_split</t>
+  </si>
+  <si>
+    <t>insert_drive_file</t>
   </si>
 </sst>
 </file>
@@ -588,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:T18"/>
+      <selection activeCell="T2" sqref="T2:T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,7 +623,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
@@ -656,30 +662,30 @@
         <v>20</v>
       </c>
       <c r="N1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="P1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" t="s">
         <v>57</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T1" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -706,7 +712,7 @@
         <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -723,7 +729,7 @@
         <v>INSERT INTO form (id,name,form_group_id,path,show_in_menu,icon,system_id,created_at,updated_at,created_by,updated_by,mobile_screen) values(form_sequence.nextval,'Inicio',1,'/',1,'home',1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),null,0,0,'');</v>
       </c>
       <c r="P2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q2" t="str">
         <f>CONCATENATE("insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (",P2,",",B2,",1,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);","insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (",P2,",",B2,",2,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);","insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (",P2,",",B2,",3,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);","insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (",P2,",",B2,",4,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);","insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (",P2,",",B2,",5,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);","insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (",P2,",",B2,",6,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);")</f>
@@ -733,7 +739,7 @@
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T2" t="str">
         <f>CONCATENATE("INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (",S2,",",((B2-1)*6)+1,",",R2,",TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );","INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (",S2,",",((B2-1)*6)+2,",",R2,",TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );", "INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (",S2,",",((B2-1)*6)+3,",",R2,",TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );", "INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (",S2,",",((B2-1)*6)+4,",",R2,",TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );", "INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (",S2,",",((B2-1)*6)+5,",",R2,",TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );", "INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (",S2,",",((B2-1)*6)+6,",",R2,",TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );")</f>
@@ -742,7 +748,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3">
         <f>+B2+1</f>
@@ -770,7 +776,7 @@
         <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -783,33 +789,33 @@
         <v>id,name,form_group_id,path,show_in_menu,icon,system_id,created_at,updated_at,created_by,updated_by,mobile_screen</v>
       </c>
       <c r="O3" t="str">
-        <f t="shared" ref="O3:O18" si="0">+CONCATENATE("INSERT INTO form (",N3,") values(",A3,",'",C3,"',",D3,",'",E3,"',",F3,",'",G3,"',",H3,",",I3,",",J3,",",K3,",",L3,",'",M3,"');")</f>
+        <f t="shared" ref="O3:O16" si="0">+CONCATENATE("INSERT INTO form (",N3,") values(",A3,",'",C3,"',",D3,",'",E3,"',",F3,",'",G3,"',",H3,",",I3,",",J3,",",K3,",",L3,",'",M3,"');")</f>
         <v>INSERT INTO form (id,name,form_group_id,path,show_in_menu,icon,system_id,created_at,updated_at,created_by,updated_by,mobile_screen) values(form_sequence.nextval,'Mi perfil',2,'/profile',1,'person',1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),null,0,0,'');</v>
       </c>
       <c r="P3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q18" si="1">CONCATENATE("insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (",P3,",",B3,",1,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);","insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (",P3,",",B3,",2,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);","insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (",P3,",",B3,",3,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);","insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (",P3,",",B3,",4,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);","insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (",P3,",",B3,",5,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);","insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (",P3,",",B3,",6,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);")</f>
+        <f t="shared" ref="Q3:Q12" si="1">CONCATENATE("insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (",P3,",",B3,",1,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);","insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (",P3,",",B3,",2,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);","insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (",P3,",",B3,",3,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);","insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (",P3,",",B3,",4,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);","insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (",P3,",",B3,",5,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);","insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (",P3,",",B3,",6,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);")</f>
         <v>insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (form_action_sequence.nextval,2,1,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (form_action_sequence.nextval,2,2,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (form_action_sequence.nextval,2,3,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (form_action_sequence.nextval,2,4,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (form_action_sequence.nextval,2,5,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (form_action_sequence.nextval,2,6,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);</v>
       </c>
       <c r="R3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T3" t="str">
-        <f t="shared" ref="T3:T8" si="2">CONCATENATE("INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (",S3,",",((B3-1)*6)+1,",",R3,",TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );","INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (",S3,",",((B3-1)*6)+2,",",R3,",TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );", "INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (",S3,",",((B3-1)*6)+3,",",R3,",TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );", "INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (",S3,",",((B3-1)*6)+4,",",R3,",TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );", "INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (",S3,",",((B3-1)*6)+5,",",R3,",TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );", "INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (",S3,",",((B3-1)*6)+6,",",R3,",TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );")</f>
+        <f t="shared" ref="T3" si="2">CONCATENATE("INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (",S3,",",((B3-1)*6)+1,",",R3,",TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );","INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (",S3,",",((B3-1)*6)+2,",",R3,",TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );", "INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (",S3,",",((B3-1)*6)+3,",",R3,",TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );", "INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (",S3,",",((B3-1)*6)+4,",",R3,",TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );", "INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (",S3,",",((B3-1)*6)+5,",",R3,",TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );", "INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (",S3,",",((B3-1)*6)+6,",",R3,",TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );")</f>
         <v>INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,7,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,8,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,9,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,10,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,11,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,12,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B18" si="3">+B3+1</f>
+        <f t="shared" ref="B4:B16" si="3">+B3+1</f>
         <v>3</v>
       </c>
       <c r="C4" t="s">
@@ -834,7 +840,7 @@
         <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -843,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="str">
-        <f t="shared" ref="N4:N18" si="4">+N3</f>
+        <f t="shared" ref="N4:N16" si="4">+N3</f>
         <v>id,name,form_group_id,path,show_in_menu,icon,system_id,created_at,updated_at,created_by,updated_by,mobile_screen</v>
       </c>
       <c r="O4" t="str">
@@ -851,7 +857,7 @@
         <v>INSERT INTO form (id,name,form_group_id,path,show_in_menu,icon,system_id,created_at,updated_at,created_by,updated_by,mobile_screen) values(form_sequence.nextval,'Usuarios',2,'/user',1,'people',1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),null,0,0,'');</v>
       </c>
       <c r="P4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q4" t="str">
         <f t="shared" si="1"/>
@@ -861,16 +867,16 @@
         <v>1</v>
       </c>
       <c r="S4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T4" t="str">
-        <f t="shared" ref="T4:T18" si="5">CONCATENATE("INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (",S4,",",((B4-1)*6)+1,",",R4,",TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );","INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (",S4,",",((B4-1)*6)+2,",",R4,",TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );", "INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (",S4,",",((B4-1)*6)+3,",",R4,",TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );", "INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (",S4,",",((B4-1)*6)+4,",",R4,",TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );", "INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (",S4,",",((B4-1)*6)+5,",",R4,",TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );", "INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (",S4,",",((B4-1)*6)+6,",",R4,",TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );")</f>
+        <f t="shared" ref="T4:T12" si="5">CONCATENATE("INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (",S4,",",((B4-1)*6)+1,",",R4,",TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );","INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (",S4,",",((B4-1)*6)+2,",",R4,",TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );", "INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (",S4,",",((B4-1)*6)+3,",",R4,",TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );", "INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (",S4,",",((B4-1)*6)+4,",",R4,",TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );", "INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (",S4,",",((B4-1)*6)+5,",",R4,",TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );", "INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (",S4,",",((B4-1)*6)+6,",",R4,",TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );")</f>
         <v>INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,13,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,14,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,15,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,16,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,17,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,18,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5">
         <f t="shared" si="3"/>
@@ -898,7 +904,7 @@
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -915,7 +921,7 @@
         <v>INSERT INTO form (id,name,form_group_id,path,show_in_menu,icon,system_id,created_at,updated_at,created_by,updated_by,mobile_screen) values(form_sequence.nextval,'Roles',2,'/rol',1,'supervised_user_circle',1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),null,0,0,'');</v>
       </c>
       <c r="P5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q5" t="str">
         <f t="shared" si="1"/>
@@ -925,7 +931,7 @@
         <v>1</v>
       </c>
       <c r="S5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T5" t="str">
         <f t="shared" si="5"/>
@@ -934,14 +940,14 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -962,7 +968,7 @@
         <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -979,7 +985,7 @@
         <v>INSERT INTO form (id,name,form_group_id,path,show_in_menu,icon,system_id,created_at,updated_at,created_by,updated_by,mobile_screen) values(form_sequence.nextval,'Acciones de rol',2,'/rolFormAction',0,'supervised_user_circle',1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),null,0,0,'');</v>
       </c>
       <c r="P6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q6" t="str">
         <f t="shared" si="1"/>
@@ -989,7 +995,7 @@
         <v>1</v>
       </c>
       <c r="S6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T6" t="str">
         <f t="shared" si="5"/>
@@ -998,26 +1004,26 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1026,7 +1032,7 @@
         <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1040,10 +1046,10 @@
       </c>
       <c r="O7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO form (id,name,form_group_id,path,show_in_menu,icon,system_id,created_at,updated_at,created_by,updated_by,mobile_screen) values(form_sequence.nextval,'Acciones',2,'/action',1,'supervised_user_circle',1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),null,0,0,'');</v>
+        <v>INSERT INTO form (id,name,form_group_id,path,show_in_menu,icon,system_id,created_at,updated_at,created_by,updated_by,mobile_screen) values(form_sequence.nextval,'Acciones',2,'/action',1,'call_to_action',1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),null,0,0,'');</v>
       </c>
       <c r="P7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q7" t="str">
         <f t="shared" si="1"/>
@@ -1053,7 +1059,7 @@
         <v>1</v>
       </c>
       <c r="S7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T7" t="str">
         <f t="shared" si="5"/>
@@ -1062,20 +1068,20 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1090,7 +1096,7 @@
         <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1107,7 +1113,7 @@
         <v>INSERT INTO form (id,name,form_group_id,path,show_in_menu,icon,system_id,created_at,updated_at,created_by,updated_by,mobile_screen) values(form_sequence.nextval,'Metodos',2,'/method',1,'supervised_user_circle',1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),null,0,0,'');</v>
       </c>
       <c r="P8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q8" t="str">
         <f t="shared" si="1"/>
@@ -1117,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="S8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T8" t="str">
         <f t="shared" si="5"/>
@@ -1126,7 +1132,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9">
         <f t="shared" si="3"/>
@@ -1145,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1154,7 +1160,7 @@
         <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1168,10 +1174,10 @@
       </c>
       <c r="O9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO form (id,name,form_group_id,path,show_in_menu,icon,system_id,created_at,updated_at,created_by,updated_by,mobile_screen) values(form_sequence.nextval,'Acciones por formulario',2,'/formAction',1,'supervised_user_circle',1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),null,0,0,'');</v>
+        <v>INSERT INTO form (id,name,form_group_id,path,show_in_menu,icon,system_id,created_at,updated_at,created_by,updated_by,mobile_screen) values(form_sequence.nextval,'Acciones por formulario',2,'/formAction',1,'call_split',1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),null,0,0,'');</v>
       </c>
       <c r="P9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q9" t="str">
         <f t="shared" si="1"/>
@@ -1181,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="S9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T9" t="str">
         <f t="shared" si="5"/>
@@ -1190,26 +1196,26 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1218,7 +1224,7 @@
         <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1232,10 +1238,10 @@
       </c>
       <c r="O10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO form (id,name,form_group_id,path,show_in_menu,icon,system_id,created_at,updated_at,created_by,updated_by,mobile_screen) values(form_sequence.nextval,'Grupo de formularios',2,'/formGroup',1,'supervised_user_circle',1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),null,0,0,'');</v>
+        <v>INSERT INTO form (id,name,form_group_id,path,show_in_menu,icon,system_id,created_at,updated_at,created_by,updated_by,mobile_screen) values(form_sequence.nextval,'Grupo de formularios',2,'/formGroup',1,'insert_drive_file',1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),null,0,0,'');</v>
       </c>
       <c r="P10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q10" t="str">
         <f t="shared" si="1"/>
@@ -1245,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="S10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T10" t="str">
         <f t="shared" si="5"/>
@@ -1254,7 +1260,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11">
         <f t="shared" si="3"/>
@@ -1282,7 +1288,7 @@
         <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1299,7 +1305,7 @@
         <v>INSERT INTO form (id,name,form_group_id,path,show_in_menu,icon,system_id,created_at,updated_at,created_by,updated_by,mobile_screen) values(form_sequence.nextval,'Formularios',2,'/form',1,'chrome_reader_mode',1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),null,0,0,'');</v>
       </c>
       <c r="P11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q11" t="str">
         <f t="shared" si="1"/>
@@ -1309,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="S11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T11" t="str">
         <f t="shared" si="5"/>
@@ -1318,27 +1324,27 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
         <v>49</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s">
-        <v>50</v>
-      </c>
       <c r="H12">
         <v>1</v>
       </c>
@@ -1346,7 +1352,7 @@
         <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1363,7 +1369,7 @@
         <v>INSERT INTO form (id,name,form_group_id,path,show_in_menu,icon,system_id,created_at,updated_at,created_by,updated_by,mobile_screen) values(form_sequence.nextval,'Sistemas',2,'/system',1,'desktop_windows',1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),null,0,0,'');</v>
       </c>
       <c r="P12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q12" t="str">
         <f t="shared" si="1"/>
@@ -1373,7 +1379,7 @@
         <v>1</v>
       </c>
       <c r="S12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T12" t="str">
         <f t="shared" si="5"/>
@@ -1382,41 +1388,44 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="s">
         <v>13</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>50</v>
       </c>
       <c r="N13" t="str">
         <f t="shared" si="4"/>
@@ -1424,63 +1433,66 @@
       </c>
       <c r="O13" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO form (id,name,form_group_id,path,show_in_menu,icon,system_id,created_at,updated_at,created_by,updated_by,mobile_screen) values(form_sequence.nextval,'Barriles',1,'/barril',1,'delete_outline',1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),null,0,0,'');</v>
+        <v>INSERT INTO form (id,name,form_group_id,path,show_in_menu,icon,system_id,created_at,updated_at,created_by,updated_by,mobile_screen) values(form_sequence.nextval,'Inicio',6,'/',1,'home',2,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),null,0,0,'Home');</v>
       </c>
       <c r="P13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="Q13:Q16" si="6">CONCATENATE("insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (",P13,",",B13,",1,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);","insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (",P13,",",B13,",2,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);","insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (",P13,",",B13,",3,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);","insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (",P13,",",B13,",4,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);","insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (",P13,",",B13,",5,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);","insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (",P13,",",B13,",6,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);")</f>
         <v>insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (form_action_sequence.nextval,12,1,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (form_action_sequence.nextval,12,2,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (form_action_sequence.nextval,12,3,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (form_action_sequence.nextval,12,4,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (form_action_sequence.nextval,12,5,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (form_action_sequence.nextval,12,6,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);</v>
       </c>
       <c r="R13">
         <v>1</v>
       </c>
       <c r="S13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="T13:T16" si="7">CONCATENATE("INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (",S13,",",((B13-1)*6)+1,",",R13,",TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );","INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (",S13,",",((B13-1)*6)+2,",",R13,",TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );", "INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (",S13,",",((B13-1)*6)+3,",",R13,",TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );", "INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (",S13,",",((B13-1)*6)+4,",",R13,",TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );", "INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (",S13,",",((B13-1)*6)+5,",",R13,",TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );", "INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (",S13,",",((B13-1)*6)+6,",",R13,",TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );")</f>
         <v>INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,67,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,68,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,69,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,70,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,71,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,72,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="s">
         <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
+      </c>
+      <c r="M14" t="s">
+        <v>51</v>
       </c>
       <c r="N14" t="str">
         <f t="shared" si="4"/>
@@ -1488,48 +1500,48 @@
       </c>
       <c r="O14" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO form (id,name,form_group_id,path,show_in_menu,icon,system_id,created_at,updated_at,created_by,updated_by,mobile_screen) values(form_sequence.nextval,'Tarimas',1,'/tarima',1,'dns',1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),null,0,0,'');</v>
+        <v>INSERT INTO form (id,name,form_group_id,path,show_in_menu,icon,system_id,created_at,updated_at,created_by,updated_by,mobile_screen) values(form_sequence.nextval,'Mi perfil',7,'/profile',1,'person',2,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),null,0,0,'Profile');</v>
       </c>
       <c r="P14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (form_action_sequence.nextval,13,1,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (form_action_sequence.nextval,13,2,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (form_action_sequence.nextval,13,3,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (form_action_sequence.nextval,13,4,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (form_action_sequence.nextval,13,5,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (form_action_sequence.nextval,13,6,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);</v>
       </c>
       <c r="R14">
         <v>1</v>
       </c>
       <c r="S14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,73,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,74,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,75,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,76,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,77,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,78,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1538,7 +1550,7 @@
         <v>13</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1547,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N15" t="str">
         <f t="shared" si="4"/>
@@ -1555,48 +1567,48 @@
       </c>
       <c r="O15" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO form (id,name,form_group_id,path,show_in_menu,icon,system_id,created_at,updated_at,created_by,updated_by,mobile_screen) values(form_sequence.nextval,'Inicio',6,'/',1,'home',2,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),null,0,0,'Home');</v>
+        <v>INSERT INTO form (id,name,form_group_id,path,show_in_menu,icon,system_id,created_at,updated_at,created_by,updated_by,mobile_screen) values(form_sequence.nextval,'Barriles',8,'/barril',1,'battery-full',2,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),null,0,0,'Barrel');</v>
       </c>
       <c r="P15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (form_action_sequence.nextval,14,1,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (form_action_sequence.nextval,14,2,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (form_action_sequence.nextval,14,3,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (form_action_sequence.nextval,14,4,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (form_action_sequence.nextval,14,5,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (form_action_sequence.nextval,14,6,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);</v>
       </c>
       <c r="R15">
         <v>1</v>
       </c>
       <c r="S15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,79,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,80,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,81,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,82,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,83,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,84,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1605,7 +1617,7 @@
         <v>13</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1614,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N16" t="str">
         <f t="shared" si="4"/>
@@ -1622,162 +1634,28 @@
       </c>
       <c r="O16" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO form (id,name,form_group_id,path,show_in_menu,icon,system_id,created_at,updated_at,created_by,updated_by,mobile_screen) values(form_sequence.nextval,'Mi perfil',7,'/profile',1,'person',2,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),null,0,0,'Profile');</v>
+        <v>INSERT INTO form (id,name,form_group_id,path,show_in_menu,icon,system_id,created_at,updated_at,created_by,updated_by,mobile_screen) values(form_sequence.nextval,'Tarimas',9,'/tarima',1,'dns',2,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),null,0,0,'Pallet');</v>
       </c>
       <c r="P16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (form_action_sequence.nextval,15,1,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (form_action_sequence.nextval,15,2,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (form_action_sequence.nextval,15,3,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (form_action_sequence.nextval,15,4,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (form_action_sequence.nextval,15,5,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (form_action_sequence.nextval,15,6,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);</v>
       </c>
       <c r="R16">
         <v>1</v>
       </c>
       <c r="S16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,85,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,86,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,87,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,88,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,89,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,90,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
-      <c r="I17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" t="s">
-        <v>47</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17" t="s">
-        <v>53</v>
-      </c>
-      <c r="N17" t="str">
-        <f t="shared" si="4"/>
-        <v>id,name,form_group_id,path,show_in_menu,icon,system_id,created_at,updated_at,created_by,updated_by,mobile_screen</v>
-      </c>
-      <c r="O17" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO form (id,name,form_group_id,path,show_in_menu,icon,system_id,created_at,updated_at,created_by,updated_by,mobile_screen) values(form_sequence.nextval,'Barriles',8,'/barril',1,'battery-full',2,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),null,0,0,'Barrel');</v>
-      </c>
-      <c r="P17" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q17" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (form_action_sequence.nextval,16,1,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (form_action_sequence.nextval,16,2,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (form_action_sequence.nextval,16,3,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (form_action_sequence.nextval,16,4,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (form_action_sequence.nextval,16,5,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (form_action_sequence.nextval,16,6,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);</v>
-      </c>
-      <c r="R17">
-        <v>1</v>
-      </c>
-      <c r="S17" t="s">
-        <v>65</v>
-      </c>
-      <c r="T17" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,91,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,92,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,93,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,94,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,95,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,96,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="I18" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" t="s">
-        <v>47</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18" t="s">
-        <v>54</v>
-      </c>
-      <c r="N18" t="str">
-        <f t="shared" si="4"/>
-        <v>id,name,form_group_id,path,show_in_menu,icon,system_id,created_at,updated_at,created_by,updated_by,mobile_screen</v>
-      </c>
-      <c r="O18" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO form (id,name,form_group_id,path,show_in_menu,icon,system_id,created_at,updated_at,created_by,updated_by,mobile_screen) values(form_sequence.nextval,'Tarimas',9,'/tarima',1,'dns',2,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),null,0,0,'Pallet');</v>
-      </c>
-      <c r="P18" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q18" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (form_action_sequence.nextval,17,1,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (form_action_sequence.nextval,17,2,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (form_action_sequence.nextval,17,3,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (form_action_sequence.nextval,17,4,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (form_action_sequence.nextval,17,5,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);insert into form_action (id,form_id,action_id,item_order,created_by,updated_by, created_at, updated_at, is_the_rol) values (form_action_sequence.nextval,17,6,1,NULL,NULL,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss'),NULL,0);</v>
-      </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
-      <c r="S18" t="s">
-        <v>65</v>
-      </c>
-      <c r="T18" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,97,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,98,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,99,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,100,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,101,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );INSERT INTO ROL_FORM_ACTION (id,form_action_id,rol_id, created_at) values (ROL_FORM_ACTION_SEQUENCE.nextval,102,1,TO_CHAR(SYSDATE,'DD/MM/YYYY hh:mm:ss') );</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="Q22">
+    <row r="20" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q20">
         <f>((B6-1)*6)+5</f>
         <v>29</v>
       </c>
